--- a/Product Test Cases And Test Scenarios.xlsx
+++ b/Product Test Cases And Test Scenarios.xlsx
@@ -1859,7 +1859,7 @@
   </sheetPr>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
